--- a/test/validation/Scenarios/DrugsValidation.xlsx
+++ b/test/validation/Scenarios/DrugsValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44130D28-B26B-48FC-A400-B46994DBD541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="14880" windowHeight="3270" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="17400" yWindow="5220" windowWidth="32670" windowHeight="23535" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="18" r:id="rId1"/>
@@ -16,7 +22,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$N$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,9 +46,6 @@
     <t>Oxygen Saturation</t>
   </si>
   <si>
-    <t>Action Occurance Time (s)</t>
-  </si>
-  <si>
     <t>Sample Scenario Time (s)</t>
   </si>
   <si>
@@ -71,9 +82,6 @@
     <t>Drug Onset in less than 2 minutes</t>
   </si>
   <si>
-    <t>Administer Succinycholine - 96 mg</t>
-  </si>
-  <si>
     <t>Administer Morphine- 42 mg</t>
   </si>
   <si>
@@ -126,9 +134,6 @@
   </si>
   <si>
     <t>Succinylcholine</t>
-  </si>
-  <si>
-    <t>Adminster 10 ug injection of Epinephrine</t>
   </si>
   <si>
     <t>Key</t>
@@ -186,9 +191,6 @@
     <t>*reverses asthma attack symptoms</t>
   </si>
   <si>
-    <t>Adminster 700 mg injection of Pralidoxime</t>
-  </si>
-  <si>
     <t>Administer 20 mg injection of Prednisone</t>
   </si>
   <si>
@@ -294,9 +296,6 @@
     <t xml:space="preserve">Moderate Decrease @cite Morgan2006Clinical p200; 15-25% Decrease @cite dukeSME    </t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease - dose dependant @cite Morgan2006Clinical p200; 5-10% Decrease @cite dukeSME    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Marked Decrease @cite Morgan2006Clinical p200; 25-40% Decrease @cite dukeSME    </t>
   </si>
   <si>
@@ -388,12 +387,27 @@
   </si>
   <si>
     <t>|&lt;span class="warning"&gt;</t>
+  </si>
+  <si>
+    <t>Administer 10 ug injection of Epinephrine</t>
+  </si>
+  <si>
+    <t>Administer 700 mg injection of Pralidoxime</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease - dose dependent @cite Morgan2006Clinical p200; 5-10% Decrease @cite dukeSME    </t>
+  </si>
+  <si>
+    <t>Administer Succinylcholine - 96 mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1208,16 +1222,16 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Bad 2" xfId="45"/>
-    <cellStyle name="Bad 3" xfId="47"/>
-    <cellStyle name="Bad 4" xfId="43"/>
+    <cellStyle name="Bad 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Bad 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Bad 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Good 2" xfId="44"/>
-    <cellStyle name="Good 3" xfId="46"/>
-    <cellStyle name="Good 4" xfId="42"/>
+    <cellStyle name="Good 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Good 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Good 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="6" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="7" builtinId="18" customBuiltin="1"/>
@@ -1237,6 +1251,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1285,7 +1302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1318,9 +1335,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1353,6 +1387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1528,14 +1579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,107 +1607,107 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3" s="10">
         <v>5</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -1665,37 +1716,37 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" s="10">
         <v>4</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -1704,37 +1755,37 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F5" s="10">
         <v>5</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -1743,37 +1794,37 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="10">
         <v>4</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -1782,37 +1833,37 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10">
         <v>5</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -1821,37 +1872,37 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="10">
         <v>5</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -1860,248 +1911,248 @@
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="10">
         <v>5</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10">
         <v>5</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="65" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="10">
         <v>5</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10">
         <v>4</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H12" s="16">
         <v>0</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J12" s="17">
         <v>1</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="10">
         <v>2</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H13" s="8">
         <v>0</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J13" s="9">
         <v>3</v>
       </c>
       <c r="K13" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10">
         <v>5</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H14" s="8">
         <v>0</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="58"/>
       <c r="C15" s="57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="60">
         <f>SUM(F3:F14)</f>
         <v>54</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H15" s="62">
         <f>SUM(H3:H14)</f>
         <v>2</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J15" s="63">
         <f>SUM(J3:J14)</f>
         <v>5</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2115,11 +2166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,57 +2183,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2191,14 +2242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2231,223 +2282,223 @@
   <sheetData>
     <row r="2" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>7</v>
-      </c>
       <c r="O2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="41">
         <v>30</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" s="35">
         <v>200</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L4" s="73" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="U4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="P5" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -2521,12 +2572,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,830 +2607,830 @@
     <row r="1" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S2" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S3" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" s="3">
         <v>150</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S4" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>30</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H5" s="3">
         <v>100</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O5" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S5" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" s="42">
         <v>30</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <v>200</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S6" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3">
         <v>70</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O7" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
         <v>30</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="O8" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="S8" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1">
         <v>30</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M9" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S9" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>330</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3">
         <v>350</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
         <v>30</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3">
         <v>100</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="M11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="O11" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S11" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
         <v>30</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O12" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S12" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
         <v>30</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3">
         <v>100</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J13" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="M13" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O13" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S13" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>30</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K14" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="S14" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" s="42">
         <v>30</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2">
         <v>100</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O15" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S15" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3387,11 +3439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,161 +3486,161 @@
     </row>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F4" s="41">
         <v>30</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" s="35">
         <v>450</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L4" s="75" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
